--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a25_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a25_ccg.xlsx
@@ -474,7 +474,7 @@
         <v>-293.8046384163206</v>
       </c>
       <c r="C2">
-        <v>4465.536606276</v>
+        <v>4456.537149662</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -500,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-294.8119679324155</v>
+        <v>-294.7051795423646</v>
       </c>
       <c r="C3">
-        <v>4552.667271766</v>
+        <v>4887.418922288</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>1104100</v>
+        <v>1214500</v>
       </c>
       <c r="H3">
-        <v>1105060</v>
+        <v>1215566</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,28 +529,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-300.4030241509961</v>
+        <v>-300.5490961788784</v>
       </c>
       <c r="C4">
-        <v>4372.976603645</v>
+        <v>4365.709819272</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>993700</v>
+        <v>938500</v>
       </c>
       <c r="H4">
-        <v>994554</v>
+        <v>939301</v>
       </c>
       <c r="I4">
-        <v>900</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,28 +558,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-312.6203105075209</v>
+        <v>-328.6516743590013</v>
       </c>
       <c r="C5">
-        <v>3851.762532647</v>
+        <v>3801.948807284</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>552100</v>
+        <v>220900</v>
       </c>
       <c r="H5">
-        <v>552530</v>
+        <v>221012</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,28 +587,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-293.78152672397925</v>
+        <v>-307.8594476126078</v>
       </c>
       <c r="C6">
-        <v>4234.535837312</v>
+        <v>4954.733290639</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>938500</v>
+        <v>386500</v>
       </c>
       <c r="H6">
-        <v>939301</v>
+        <v>386771</v>
       </c>
       <c r="I6">
-        <v>850</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,28 +616,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-289.1660925443899</v>
+        <v>-289.1891211215344</v>
       </c>
       <c r="C7">
-        <v>4538.690534412</v>
+        <v>4619.234561798</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>1048900</v>
+        <v>993700</v>
       </c>
       <c r="H7">
-        <v>1049807</v>
+        <v>994554</v>
       </c>
       <c r="I7">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,28 +645,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-289.4727174474009</v>
+        <v>-312.6390906487683</v>
       </c>
       <c r="C8">
-        <v>4368.24846092</v>
+        <v>3702.986017238</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>993700</v>
+        <v>165700</v>
       </c>
       <c r="H8">
-        <v>994554</v>
+        <v>165759</v>
       </c>
       <c r="I8">
-        <v>900</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,28 +674,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-297.3344274516786</v>
+        <v>-297.3996219898407</v>
       </c>
       <c r="C9">
-        <v>4398.703074697</v>
+        <v>4184.50350538</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>883300</v>
+        <v>717700</v>
       </c>
       <c r="H9">
-        <v>884048</v>
+        <v>718289</v>
       </c>
       <c r="I9">
-        <v>800</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,28 +703,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-293.23335813389997</v>
+        <v>-293.3598685198751</v>
       </c>
       <c r="C10">
-        <v>4749.238713106</v>
+        <v>4597.940268666</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1159300</v>
+        <v>1104100</v>
       </c>
       <c r="H10">
-        <v>1160313</v>
+        <v>1105060</v>
       </c>
       <c r="I10">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,28 +732,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-290.89990465470333</v>
+        <v>-290.92882140782285</v>
       </c>
       <c r="C11">
-        <v>4351.417977812</v>
+        <v>4268.46708759</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>993700</v>
+        <v>938500</v>
       </c>
       <c r="H11">
-        <v>994554</v>
+        <v>939301</v>
       </c>
       <c r="I11">
-        <v>900</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>8.888754758116821</v>
+        <v>5.498689558791016</v>
       </c>
       <c r="E2">
         <v>144.24985</v>
@@ -814,7 +814,7 @@
         <v>0.09915968228778796</v>
       </c>
       <c r="D3">
-        <v>19.887468191300538</v>
+        <v>17.6937872987948</v>
       </c>
       <c r="E3">
         <v>14.24191</v>
@@ -831,7 +831,7 @@
         <v>0.09996759803642005</v>
       </c>
       <c r="D4">
-        <v>66.86385124895618</v>
+        <v>91.95165204060206</v>
       </c>
       <c r="E4">
         <v>12.22826</v>
@@ -848,7 +848,7 @@
         <v>0.09906761177592736</v>
       </c>
       <c r="D5">
-        <v>36.94370189927136</v>
+        <v>49.52024787019031</v>
       </c>
       <c r="E5">
         <v>7.28622</v>
@@ -865,7 +865,7 @@
         <v>0.09479607774686935</v>
       </c>
       <c r="D6">
-        <v>40.2415744114176</v>
+        <v>54.014962134563234</v>
       </c>
       <c r="E6">
         <v>5.04826</v>
@@ -882,7 +882,7 @@
         <v>0.09830731033979752</v>
       </c>
       <c r="D7">
-        <v>50.294979821547116</v>
+        <v>68.30144523611841</v>
       </c>
       <c r="E7">
         <v>2.96063</v>
@@ -899,7 +899,7 @@
         <v>0.0999848625102611</v>
       </c>
       <c r="D8">
-        <v>82.71759445771252</v>
+        <v>91.82328415014209</v>
       </c>
       <c r="E8">
         <v>2.76029</v>
@@ -916,7 +916,7 @@
         <v>0.09988848990995874</v>
       </c>
       <c r="D9">
-        <v>279.5946124997975</v>
+        <v>277.648076836823</v>
       </c>
       <c r="E9">
         <v>1.50808</v>
@@ -933,7 +933,7 @@
         <v>0.09956192592938576</v>
       </c>
       <c r="D10">
-        <v>93.17293979977612</v>
+        <v>97.2707333742091</v>
       </c>
       <c r="E10">
         <v>1.19631</v>
@@ -950,7 +950,7 @@
         <v>0.08458645728030018</v>
       </c>
       <c r="D11">
-        <v>109.4945289674441</v>
+        <v>122.20189910757433</v>
       </c>
       <c r="E11">
         <v>0.90721</v>
@@ -967,7 +967,7 @@
         <v>0.09753559061884359</v>
       </c>
       <c r="D12">
-        <v>118.71323923408508</v>
+        <v>139.53862876943288</v>
       </c>
       <c r="E12">
         <v>0.84238</v>
@@ -984,7 +984,7 @@
         <v>0.09736326000178279</v>
       </c>
       <c r="D13">
-        <v>132.86310019696631</v>
+        <v>150.6425043118363</v>
       </c>
       <c r="E13">
         <v>0.71607</v>
@@ -1001,7 +1001,7 @@
         <v>0.09480453865150566</v>
       </c>
       <c r="D14">
-        <v>157.76320171302112</v>
+        <v>164.6347544933767</v>
       </c>
       <c r="E14">
         <v>0.8565</v>
@@ -1018,7 +1018,7 @@
         <v>0.09987450936400726</v>
       </c>
       <c r="D15">
-        <v>192.48378635859376</v>
+        <v>218.9785819321759</v>
       </c>
       <c r="E15">
         <v>0.67603</v>
@@ -1035,7 +1035,7 @@
         <v>0.0853946545040979</v>
       </c>
       <c r="D16">
-        <v>256.86897062356724</v>
+        <v>274.2818684062985</v>
       </c>
       <c r="E16">
         <v>0.60468</v>
@@ -1052,7 +1052,7 @@
         <v>0.08204923633507921</v>
       </c>
       <c r="D17">
-        <v>292.9879672751549</v>
+        <v>298.5680225167517</v>
       </c>
       <c r="E17">
         <v>0.2671</v>
@@ -1069,7 +1069,7 @@
         <v>0.08153398958534877</v>
       </c>
       <c r="D18">
-        <v>262.597704500538</v>
+        <v>283.9588547999758</v>
       </c>
       <c r="E18">
         <v>0.2509</v>
@@ -1086,7 +1086,7 @@
         <v>0.09986548473347147</v>
       </c>
       <c r="D19">
-        <v>244.68521484952086</v>
+        <v>271.61368498211243</v>
       </c>
       <c r="E19">
         <v>0.17966</v>
@@ -1103,7 +1103,7 @@
         <v>0.08311510988985475</v>
       </c>
       <c r="D20">
-        <v>382.5909492008009</v>
+        <v>402.3535696816178</v>
       </c>
       <c r="E20">
         <v>0.185</v>
@@ -1120,7 +1120,7 @@
         <v>0.09985393265686685</v>
       </c>
       <c r="D21">
-        <v>299.4685007264437</v>
+        <v>331.67402451101833</v>
       </c>
       <c r="E21">
         <v>0.14147</v>
@@ -1137,27 +1137,10 @@
         <v>0.09820004998348968</v>
       </c>
       <c r="D22">
-        <v>343.27136765251834</v>
+        <v>383.0046753136139</v>
       </c>
       <c r="E22">
         <v>0.0833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-293.23335813389997</v>
-      </c>
-      <c r="C23">
-        <v>0.09999571831808854</v>
-      </c>
-      <c r="D23">
-        <v>402.6969477827284</v>
-      </c>
-      <c r="E23">
-        <v>0.02822</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1184,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.23152418434851</v>
+        <v>5.149554255782348</v>
       </c>
       <c r="E2">
         <v>147.49104</v>
@@ -1218,7 +1201,7 @@
         <v>0.09786173463771479</v>
       </c>
       <c r="D3">
-        <v>20.25733664334851</v>
+        <v>19.13665765311145</v>
       </c>
       <c r="E3">
         <v>13.31765</v>
@@ -1235,7 +1218,7 @@
         <v>0.09720007218637008</v>
       </c>
       <c r="D4">
-        <v>42.95724940390503</v>
+        <v>36.026997100410526</v>
       </c>
       <c r="E4">
         <v>10.5466</v>
@@ -1252,7 +1235,7 @@
         <v>0.09998745347477501</v>
       </c>
       <c r="D5">
-        <v>97.02947204459656</v>
+        <v>94.96536289413685</v>
       </c>
       <c r="E5">
         <v>6.97357</v>
@@ -1269,7 +1252,7 @@
         <v>0.0999916152155689</v>
       </c>
       <c r="D6">
-        <v>870.8619346826235</v>
+        <v>888.0112100050874</v>
       </c>
       <c r="E6">
         <v>4.7807</v>
@@ -1286,7 +1269,7 @@
         <v>0.09998250563047921</v>
       </c>
       <c r="D7">
-        <v>295.40060703064734</v>
+        <v>331.671533856974</v>
       </c>
       <c r="E7">
         <v>2.44498</v>
@@ -1303,7 +1286,7 @@
         <v>0.09999937658238553</v>
       </c>
       <c r="D8">
-        <v>87.3080290964198</v>
+        <v>101.97373096903662</v>
       </c>
       <c r="E8">
         <v>1.78431</v>
@@ -1320,7 +1303,7 @@
         <v>0.09991940101320591</v>
       </c>
       <c r="D9">
-        <v>139.6756728407335</v>
+        <v>140.35364916083216</v>
       </c>
       <c r="E9">
         <v>1.19954</v>
@@ -1337,7 +1320,7 @@
         <v>0.08942202945977351</v>
       </c>
       <c r="D10">
-        <v>91.7725826418523</v>
+        <v>105.76086049297705</v>
       </c>
       <c r="E10">
         <v>1.37222</v>
@@ -1354,7 +1337,7 @@
         <v>0.09962199379545465</v>
       </c>
       <c r="D11">
-        <v>102.54881274356605</v>
+        <v>116.90885556639965</v>
       </c>
       <c r="E11">
         <v>0.87132</v>
@@ -1371,7 +1354,7 @@
         <v>0.09970695020237039</v>
       </c>
       <c r="D12">
-        <v>136.82414296550513</v>
+        <v>159.54287889273328</v>
       </c>
       <c r="E12">
         <v>0.80643</v>
@@ -1388,7 +1371,7 @@
         <v>0.09882398039243773</v>
       </c>
       <c r="D13">
-        <v>137.26132060760182</v>
+        <v>159.25666887038014</v>
       </c>
       <c r="E13">
         <v>0.66196</v>
@@ -1405,7 +1388,7 @@
         <v>0.09964609689317293</v>
       </c>
       <c r="D14">
-        <v>163.90540714309887</v>
+        <v>185.38245697020668</v>
       </c>
       <c r="E14">
         <v>0.62899</v>
@@ -1422,7 +1405,7 @@
         <v>0.09565926947299286</v>
       </c>
       <c r="D15">
-        <v>177.90918143032667</v>
+        <v>198.90557121843506</v>
       </c>
       <c r="E15">
         <v>0.47751</v>
@@ -1439,7 +1422,7 @@
         <v>0.09494090621682155</v>
       </c>
       <c r="D16">
-        <v>231.52453800691382</v>
+        <v>259.5000336784976</v>
       </c>
       <c r="E16">
         <v>0.38645</v>
@@ -1456,7 +1439,7 @@
         <v>0.08481038820456414</v>
       </c>
       <c r="D17">
-        <v>265.56524409701393</v>
+        <v>278.9235600507101</v>
       </c>
       <c r="E17">
         <v>0.18</v>
@@ -1473,7 +1456,7 @@
         <v>0.09018865094570962</v>
       </c>
       <c r="D18">
-        <v>257.8329423235671</v>
+        <v>289.11042569629063</v>
       </c>
       <c r="E18">
         <v>0.13063</v>
@@ -1490,27 +1473,10 @@
         <v>0.09977812923795953</v>
       </c>
       <c r="D19">
-        <v>239.49184880615906</v>
+        <v>265.45358397869154</v>
       </c>
       <c r="E19">
         <v>0.09989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-290.89990465470333</v>
-      </c>
-      <c r="C20">
-        <v>0.09984390242019643</v>
-      </c>
-      <c r="D20">
-        <v>327.89813834374365</v>
-      </c>
-      <c r="E20">
-        <v>0.1002</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1520,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.425986527134278</v>
+        <v>11.091433618576904</v>
       </c>
       <c r="E2">
         <v>152.38696</v>
@@ -1571,7 +1537,7 @@
         <v>0.09976095604214354</v>
       </c>
       <c r="D3">
-        <v>36.99275235652954</v>
+        <v>40.487408380610105</v>
       </c>
       <c r="E3">
         <v>15.37754</v>
@@ -1588,7 +1554,7 @@
         <v>0.0999537748988452</v>
       </c>
       <c r="D4">
-        <v>113.3429714845846</v>
+        <v>135.55737847621802</v>
       </c>
       <c r="E4">
         <v>10.80873</v>
@@ -1605,7 +1571,7 @@
         <v>0.09524352848811987</v>
       </c>
       <c r="D5">
-        <v>40.2660804904303</v>
+        <v>54.36849707767407</v>
       </c>
       <c r="E5">
         <v>4.31491</v>
@@ -1622,7 +1588,7 @@
         <v>0.09966397286292522</v>
       </c>
       <c r="D6">
-        <v>75.52152590328406</v>
+        <v>96.00528385863294</v>
       </c>
       <c r="E6">
         <v>3.07212</v>
@@ -1639,7 +1605,7 @@
         <v>0.09815453422005165</v>
       </c>
       <c r="D7">
-        <v>53.65377490692004</v>
+        <v>68.10578923090173</v>
       </c>
       <c r="E7">
         <v>2.67351</v>
@@ -1656,7 +1622,7 @@
         <v>0.09998445720766486</v>
       </c>
       <c r="D8">
-        <v>125.81468160880517</v>
+        <v>145.0620340823401</v>
       </c>
       <c r="E8">
         <v>2.61528</v>
@@ -1673,7 +1639,7 @@
         <v>0.09890529165018476</v>
       </c>
       <c r="D9">
-        <v>103.05801075124853</v>
+        <v>98.37269855660962</v>
       </c>
       <c r="E9">
         <v>1.69484</v>
@@ -1690,7 +1656,7 @@
         <v>0.09332895666482953</v>
       </c>
       <c r="D10">
-        <v>93.61710887121802</v>
+        <v>81.71695358957935</v>
       </c>
       <c r="E10">
         <v>1.38457</v>
@@ -1707,7 +1673,7 @@
         <v>0.06901249153357775</v>
       </c>
       <c r="D11">
-        <v>108.71024706128577</v>
+        <v>113.85887895858838</v>
       </c>
       <c r="E11">
         <v>0.97156</v>
@@ -1724,7 +1690,7 @@
         <v>0.0814036110720799</v>
       </c>
       <c r="D12">
-        <v>130.48751716676819</v>
+        <v>127.98106851152808</v>
       </c>
       <c r="E12">
         <v>0.85153</v>
@@ -1741,7 +1707,7 @@
         <v>0.0646821837203472</v>
       </c>
       <c r="D13">
-        <v>159.62910920935596</v>
+        <v>157.22305916309816</v>
       </c>
       <c r="E13">
         <v>0.73888</v>
@@ -1758,7 +1724,7 @@
         <v>0.08932028562912345</v>
       </c>
       <c r="D14">
-        <v>199.2711038086328</v>
+        <v>193.9445761826089</v>
       </c>
       <c r="E14">
         <v>0.4491</v>
@@ -1775,7 +1741,7 @@
         <v>0.09855352673637223</v>
       </c>
       <c r="D15">
-        <v>213.55254718768444</v>
+        <v>228.24075956512976</v>
       </c>
       <c r="E15">
         <v>0.28962</v>
@@ -1792,7 +1758,7 @@
         <v>0.06783554280656891</v>
       </c>
       <c r="D16">
-        <v>235.29359639093298</v>
+        <v>257.5250661456659</v>
       </c>
       <c r="E16">
         <v>0.22111</v>
@@ -1809,7 +1775,7 @@
         <v>0.07293285449230039</v>
       </c>
       <c r="D17">
-        <v>212.12755902396717</v>
+        <v>222.281221138395</v>
       </c>
       <c r="E17">
         <v>0.0838</v>
@@ -1826,7 +1792,7 @@
         <v>0.09980643206113765</v>
       </c>
       <c r="D18">
-        <v>375.1395366017313</v>
+        <v>358.0267852387638</v>
       </c>
       <c r="E18">
         <v>0.09248</v>
@@ -1843,7 +1809,7 @@
         <v>0.09981559364550495</v>
       </c>
       <c r="D19">
-        <v>272.4753769388302</v>
+        <v>250.36595887921862</v>
       </c>
       <c r="E19">
         <v>0.04336</v>
@@ -1860,7 +1826,7 @@
         <v>0.09728122297860159</v>
       </c>
       <c r="D20">
-        <v>382.12463048397365</v>
+        <v>356.55624644163294</v>
       </c>
       <c r="E20">
         <v>0.01418</v>
@@ -1877,7 +1843,7 @@
         <v>0.0995951545454603</v>
       </c>
       <c r="D21">
-        <v>329.7327398332241</v>
+        <v>313.1908218727682</v>
       </c>
       <c r="E21">
         <v>0.01214</v>
@@ -1894,7 +1860,7 @@
         <v>0.09986300338744654</v>
       </c>
       <c r="D22">
-        <v>406.3026076336257</v>
+        <v>380.3380293302753</v>
       </c>
       <c r="E22">
         <v>0.00533</v>
@@ -1907,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1941,7 +1907,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.59944698243042</v>
+        <v>8.991869838642945</v>
       </c>
       <c r="E2">
         <v>136.38241</v>
@@ -1958,7 +1924,7 @@
         <v>0.09976039885690755</v>
       </c>
       <c r="D3">
-        <v>16.23687433288733</v>
+        <v>15.55087775078784</v>
       </c>
       <c r="E3">
         <v>17.5036</v>
@@ -1975,7 +1941,7 @@
         <v>0.09968720679701062</v>
       </c>
       <c r="D4">
-        <v>53.627882064957035</v>
+        <v>44.185976202195924</v>
       </c>
       <c r="E4">
         <v>11.25791</v>
@@ -1992,7 +1958,7 @@
         <v>0.09578623585799863</v>
       </c>
       <c r="D5">
-        <v>44.52630372462744</v>
+        <v>40.224051283491214</v>
       </c>
       <c r="E5">
         <v>9.05572</v>
@@ -2009,7 +1975,7 @@
         <v>0.09996013895435141</v>
       </c>
       <c r="D6">
-        <v>121.86755369433655</v>
+        <v>98.62744057919006</v>
       </c>
       <c r="E6">
         <v>5.07343</v>
@@ -2026,7 +1992,7 @@
         <v>0.09994608378544792</v>
       </c>
       <c r="D7">
-        <v>151.06408057131665</v>
+        <v>130.61485996912145</v>
       </c>
       <c r="E7">
         <v>2.79731</v>
@@ -2043,7 +2009,7 @@
         <v>0.09908243456891859</v>
       </c>
       <c r="D8">
-        <v>127.51148128097302</v>
+        <v>103.2884654777351</v>
       </c>
       <c r="E8">
         <v>2.43425</v>
@@ -2060,7 +2026,7 @@
         <v>0.0998110363277692</v>
       </c>
       <c r="D9">
-        <v>147.07812147877772</v>
+        <v>128.73172836037415</v>
       </c>
       <c r="E9">
         <v>1.93802</v>
@@ -2077,7 +2043,7 @@
         <v>0.09995379274413131</v>
       </c>
       <c r="D10">
-        <v>155.7733152459514</v>
+        <v>126.01984279929968</v>
       </c>
       <c r="E10">
         <v>1.82297</v>
@@ -2094,7 +2060,7 @@
         <v>0.099530091051229</v>
       </c>
       <c r="D11">
-        <v>129.4136088933932</v>
+        <v>103.66285275803295</v>
       </c>
       <c r="E11">
         <v>1.17894</v>
@@ -2111,7 +2077,7 @@
         <v>0.09968612615345152</v>
       </c>
       <c r="D12">
-        <v>141.70533859932118</v>
+        <v>116.47443345169556</v>
       </c>
       <c r="E12">
         <v>0.93102</v>
@@ -2128,7 +2094,7 @@
         <v>0.07970630235840291</v>
       </c>
       <c r="D13">
-        <v>178.53614407199098</v>
+        <v>153.46712578720678</v>
       </c>
       <c r="E13">
         <v>1.01888</v>
@@ -2145,7 +2111,7 @@
         <v>0.09601154283551284</v>
       </c>
       <c r="D14">
-        <v>185.736589089661</v>
+        <v>148.78242908584033</v>
       </c>
       <c r="E14">
         <v>0.66641</v>
@@ -2162,7 +2128,7 @@
         <v>0.08805479167303369</v>
       </c>
       <c r="D15">
-        <v>200.1650909138329</v>
+        <v>197.82880016619225</v>
       </c>
       <c r="E15">
         <v>0.59723</v>
@@ -2179,7 +2145,7 @@
         <v>0.09324432735257392</v>
       </c>
       <c r="D16">
-        <v>214.51805098457018</v>
+        <v>183.21485234801722</v>
       </c>
       <c r="E16">
         <v>0.44836</v>
@@ -2196,7 +2162,7 @@
         <v>0.08854097477876977</v>
       </c>
       <c r="D17">
-        <v>266.75387758252174</v>
+        <v>209.8999163641615</v>
       </c>
       <c r="E17">
         <v>0.43157</v>
@@ -2213,7 +2179,7 @@
         <v>0.09989861985778341</v>
       </c>
       <c r="D18">
-        <v>289.092350180677</v>
+        <v>254.39064701379564</v>
       </c>
       <c r="E18">
         <v>0.40185</v>
@@ -2230,7 +2196,7 @@
         <v>0.0966596531197985</v>
       </c>
       <c r="D19">
-        <v>314.73797330892893</v>
+        <v>284.0833077839832</v>
       </c>
       <c r="E19">
         <v>0.3125</v>
@@ -2247,7 +2213,7 @@
         <v>0.0997762781695474</v>
       </c>
       <c r="D20">
-        <v>335.73343872099184</v>
+        <v>299.62937123477536</v>
       </c>
       <c r="E20">
         <v>0.29162</v>
@@ -2264,7 +2230,7 @@
         <v>0.09458532168305714</v>
       </c>
       <c r="D21">
-        <v>325.6848139390951</v>
+        <v>277.02542936718737</v>
       </c>
       <c r="E21">
         <v>0.24206</v>
@@ -2281,10 +2247,44 @@
         <v>0.08962074460810877</v>
       </c>
       <c r="D22">
-        <v>330.4032771914141</v>
+        <v>313.7470154141437</v>
       </c>
       <c r="E22">
         <v>0.26322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-294.7441519774107</v>
+      </c>
+      <c r="C23">
+        <v>0.09922284349606872</v>
+      </c>
+      <c r="D23">
+        <v>313.57069217118845</v>
+      </c>
+      <c r="E23">
+        <v>0.19247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-294.7051795423646</v>
+      </c>
+      <c r="C24">
+        <v>0.09981002482207972</v>
+      </c>
+      <c r="D24">
+        <v>384.8641001204957</v>
+      </c>
+      <c r="E24">
+        <v>0.18075</v>
       </c>
     </row>
   </sheetData>
@@ -2293,6 +2293,623 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1518.1300477206896</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>6.456909356581177</v>
+      </c>
+      <c r="E2">
+        <v>149.6355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-388.73517080181693</v>
+      </c>
+      <c r="C3">
+        <v>0.0993369108032539</v>
+      </c>
+      <c r="D3">
+        <v>17.241846227495362</v>
+      </c>
+      <c r="E3">
+        <v>15.0552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-352.8152406053658</v>
+      </c>
+      <c r="C4">
+        <v>0.09226206823464195</v>
+      </c>
+      <c r="D4">
+        <v>33.32819820875208</v>
+      </c>
+      <c r="E4">
+        <v>9.90266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-325.6740300730037</v>
+      </c>
+      <c r="C5">
+        <v>0.09999537271155311</v>
+      </c>
+      <c r="D5">
+        <v>797.5858224072708</v>
+      </c>
+      <c r="E5">
+        <v>4.9291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-316.66251124508904</v>
+      </c>
+      <c r="C6">
+        <v>0.09999618455078789</v>
+      </c>
+      <c r="D6">
+        <v>433.4649675864905</v>
+      </c>
+      <c r="E6">
+        <v>3.60927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-311.53082240219817</v>
+      </c>
+      <c r="C7">
+        <v>0.09993040078562962</v>
+      </c>
+      <c r="D7">
+        <v>100.75921098198889</v>
+      </c>
+      <c r="E7">
+        <v>2.18319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-309.18307787244964</v>
+      </c>
+      <c r="C8">
+        <v>0.09931215934028406</v>
+      </c>
+      <c r="D8">
+        <v>100.04023195863525</v>
+      </c>
+      <c r="E8">
+        <v>1.60174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-307.6873815203728</v>
+      </c>
+      <c r="C9">
+        <v>0.09995136467065309</v>
+      </c>
+      <c r="D9">
+        <v>394.8422084381036</v>
+      </c>
+      <c r="E9">
+        <v>1.37269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-306.6275604721441</v>
+      </c>
+      <c r="C10">
+        <v>0.09966697286167481</v>
+      </c>
+      <c r="D10">
+        <v>109.27136949483362</v>
+      </c>
+      <c r="E10">
+        <v>1.22226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-305.8512247196992</v>
+      </c>
+      <c r="C11">
+        <v>0.0997979207844943</v>
+      </c>
+      <c r="D11">
+        <v>126.14799559898292</v>
+      </c>
+      <c r="E11">
+        <v>1.19471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-304.8256738345686</v>
+      </c>
+      <c r="C12">
+        <v>0.07266206296846191</v>
+      </c>
+      <c r="D12">
+        <v>140.32487343462086</v>
+      </c>
+      <c r="E12">
+        <v>1.03006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-302.0815955928284</v>
+      </c>
+      <c r="C13">
+        <v>0.08955033497599825</v>
+      </c>
+      <c r="D13">
+        <v>159.1041185045758</v>
+      </c>
+      <c r="E13">
+        <v>0.82995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-301.57162671697546</v>
+      </c>
+      <c r="C14">
+        <v>0.09134536758248923</v>
+      </c>
+      <c r="D14">
+        <v>169.11394240764673</v>
+      </c>
+      <c r="E14">
+        <v>0.63798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-301.26226740628795</v>
+      </c>
+      <c r="C15">
+        <v>0.08355814688770646</v>
+      </c>
+      <c r="D15">
+        <v>217.98001979213134</v>
+      </c>
+      <c r="E15">
+        <v>0.64876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-300.8625221573333</v>
+      </c>
+      <c r="C16">
+        <v>0.09963631026732994</v>
+      </c>
+      <c r="D16">
+        <v>242.19259718393346</v>
+      </c>
+      <c r="E16">
+        <v>0.58949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-300.60366077780577</v>
+      </c>
+      <c r="C17">
+        <v>0.09948263536822681</v>
+      </c>
+      <c r="D17">
+        <v>187.18243857318237</v>
+      </c>
+      <c r="E17">
+        <v>0.24478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-300.56114277218785</v>
+      </c>
+      <c r="C18">
+        <v>0.09738446680010159</v>
+      </c>
+      <c r="D18">
+        <v>293.54097119727646</v>
+      </c>
+      <c r="E18">
+        <v>0.12183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-300.5490961788784</v>
+      </c>
+      <c r="C19">
+        <v>0.09117727044478818</v>
+      </c>
+      <c r="D19">
+        <v>247.3395926449746</v>
+      </c>
+      <c r="E19">
+        <v>0.0764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1535.77501946269</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>12.241709417733155</v>
+      </c>
+      <c r="E2">
+        <v>152.95913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-388.5766742966115</v>
+      </c>
+      <c r="C3">
+        <v>0.09866194054278322</v>
+      </c>
+      <c r="D3">
+        <v>20.89055380547522</v>
+      </c>
+      <c r="E3">
+        <v>14.58163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-365.89951210809255</v>
+      </c>
+      <c r="C4">
+        <v>0.09967978137127342</v>
+      </c>
+      <c r="D4">
+        <v>41.39083281626135</v>
+      </c>
+      <c r="E4">
+        <v>10.26229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-339.7511046525583</v>
+      </c>
+      <c r="C5">
+        <v>0.0988358759741645</v>
+      </c>
+      <c r="D5">
+        <v>82.59303546098585</v>
+      </c>
+      <c r="E5">
+        <v>5.30693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-328.6516743590013</v>
+      </c>
+      <c r="C6">
+        <v>0.10766040475060154</v>
+      </c>
+      <c r="D6">
+        <v>3604.2822310653064</v>
+      </c>
+      <c r="E6">
+        <v>3.70999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1494.1232199893118</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>8.16254144481299</v>
+      </c>
+      <c r="E2">
+        <v>137.28801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-382.89626630511657</v>
+      </c>
+      <c r="C3">
+        <v>0.09009355204691637</v>
+      </c>
+      <c r="D3">
+        <v>21.089347510866578</v>
+      </c>
+      <c r="E3">
+        <v>14.23344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-370.09352546867854</v>
+      </c>
+      <c r="C4">
+        <v>0.09986797091190366</v>
+      </c>
+      <c r="D4">
+        <v>38.75206861130225</v>
+      </c>
+      <c r="E4">
+        <v>11.36787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-354.8110864294004</v>
+      </c>
+      <c r="C5">
+        <v>0.09997453317336027</v>
+      </c>
+      <c r="D5">
+        <v>53.02639108625854</v>
+      </c>
+      <c r="E5">
+        <v>8.16786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-341.23382425444925</v>
+      </c>
+      <c r="C6">
+        <v>0.08986368411139065</v>
+      </c>
+      <c r="D6">
+        <v>64.76836418632568</v>
+      </c>
+      <c r="E6">
+        <v>6.17771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-327.1683161458667</v>
+      </c>
+      <c r="C7">
+        <v>0.0921588945630063</v>
+      </c>
+      <c r="D7">
+        <v>75.29528567881616</v>
+      </c>
+      <c r="E7">
+        <v>5.96861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-318.0340517228378</v>
+      </c>
+      <c r="C8">
+        <v>0.09998869447669775</v>
+      </c>
+      <c r="D8">
+        <v>990.0061010700293</v>
+      </c>
+      <c r="E8">
+        <v>4.31731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-307.8594476126078</v>
+      </c>
+      <c r="C9">
+        <v>0.10485127669054664</v>
+      </c>
+      <c r="D9">
+        <v>3605.8513451948875</v>
+      </c>
+      <c r="E9">
+        <v>3.89311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -2322,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1518.1300477206896</v>
+        <v>-1480.05699853539</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>3.844343856824097</v>
+        <v>7.198134332036988</v>
       </c>
       <c r="E2">
-        <v>149.6355</v>
+        <v>150.45432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2339,16 +2956,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-388.73517080181693</v>
+        <v>-379.7876157074552</v>
       </c>
       <c r="C3">
-        <v>0.0993369108032539</v>
+        <v>0.09681514367686232</v>
       </c>
       <c r="D3">
-        <v>20.49302425567273</v>
+        <v>16.24461705151721</v>
       </c>
       <c r="E3">
-        <v>15.0552</v>
+        <v>13.50792</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2356,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-352.8152406053658</v>
+        <v>-358.11338896228324</v>
       </c>
       <c r="C4">
-        <v>0.09226206823464195</v>
+        <v>0.09971335768357888</v>
       </c>
       <c r="D4">
-        <v>45.54558950226502</v>
+        <v>49.02115241485852</v>
       </c>
       <c r="E4">
-        <v>9.90266</v>
+        <v>12.11572</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2373,16 +2990,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-325.6740300730037</v>
+        <v>-324.4689720229286</v>
       </c>
       <c r="C5">
-        <v>0.09999537271155311</v>
+        <v>0.09963654711806531</v>
       </c>
       <c r="D5">
-        <v>718.3514825720224</v>
+        <v>66.73162883731165</v>
       </c>
       <c r="E5">
-        <v>4.9291</v>
+        <v>7.10519</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2390,16 +3007,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-316.66251124508904</v>
+        <v>-312.82141960899776</v>
       </c>
       <c r="C6">
-        <v>0.09999618455078789</v>
+        <v>0.09998966292735474</v>
       </c>
       <c r="D6">
-        <v>359.22734737964305</v>
+        <v>872.0773561171004</v>
       </c>
       <c r="E6">
-        <v>3.60927</v>
+        <v>5.2726</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2407,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-311.53082240219817</v>
+        <v>-308.0017240025968</v>
       </c>
       <c r="C7">
-        <v>0.09993040078562962</v>
+        <v>0.09858368007456782</v>
       </c>
       <c r="D7">
-        <v>76.24958064741736</v>
+        <v>102.51517469408068</v>
       </c>
       <c r="E7">
-        <v>2.18319</v>
+        <v>3.59657</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2424,16 +3041,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-309.18307787244964</v>
+        <v>-302.05250731876436</v>
       </c>
       <c r="C8">
-        <v>0.09931215934028406</v>
+        <v>0.09986639368902844</v>
       </c>
       <c r="D8">
-        <v>82.77605311840307</v>
+        <v>165.1117482335144</v>
       </c>
       <c r="E8">
-        <v>1.60174</v>
+        <v>3.03066</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2441,16 +3058,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-307.6873815203728</v>
+        <v>-298.09041500115376</v>
       </c>
       <c r="C9">
-        <v>0.09995136467065309</v>
+        <v>0.09643818109885625</v>
       </c>
       <c r="D9">
-        <v>246.9564976381959</v>
+        <v>134.22478886974415</v>
       </c>
       <c r="E9">
-        <v>1.37269</v>
+        <v>2.15206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2458,16 +3075,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-306.6275604721441</v>
+        <v>-295.73440587191715</v>
       </c>
       <c r="C10">
-        <v>0.09966697286167481</v>
+        <v>0.09749199443296373</v>
       </c>
       <c r="D10">
-        <v>90.20475351079699</v>
+        <v>113.07209956998767</v>
       </c>
       <c r="E10">
-        <v>1.22226</v>
+        <v>1.61498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2475,16 +3092,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-305.8512247196992</v>
+        <v>-294.21148153261515</v>
       </c>
       <c r="C11">
-        <v>0.0997979207844943</v>
+        <v>0.09929831213659969</v>
       </c>
       <c r="D11">
-        <v>120.5579704692644</v>
+        <v>126.92973834558202</v>
       </c>
       <c r="E11">
-        <v>1.19471</v>
+        <v>1.30972</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2492,16 +3109,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-304.8256738345686</v>
+        <v>-293.3557997266257</v>
       </c>
       <c r="C12">
-        <v>0.07266206296846191</v>
+        <v>0.08451140220273866</v>
       </c>
       <c r="D12">
-        <v>136.2423509950498</v>
+        <v>139.21573571071522</v>
       </c>
       <c r="E12">
-        <v>1.03006</v>
+        <v>1.25888</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2509,16 +3126,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-302.0815955928284</v>
+        <v>-292.2809283370999</v>
       </c>
       <c r="C13">
-        <v>0.08955033497599825</v>
+        <v>0.09187325036923694</v>
       </c>
       <c r="D13">
-        <v>159.28404635077064</v>
+        <v>158.19558302704064</v>
       </c>
       <c r="E13">
-        <v>0.82995</v>
+        <v>1.07983</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2526,16 +3143,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-301.57162671697546</v>
+        <v>-291.3312115074191</v>
       </c>
       <c r="C14">
-        <v>0.09134536758248923</v>
+        <v>0.09646365820616655</v>
       </c>
       <c r="D14">
-        <v>166.8735568153718</v>
+        <v>191.3833685808518</v>
       </c>
       <c r="E14">
-        <v>0.63798</v>
+        <v>0.83423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2543,16 +3160,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-301.26226740628795</v>
+        <v>-290.86200531215184</v>
       </c>
       <c r="C15">
-        <v>0.08355814688770646</v>
+        <v>0.0993821596185676</v>
       </c>
       <c r="D15">
-        <v>218.99556437711755</v>
+        <v>190.90965941453015</v>
       </c>
       <c r="E15">
-        <v>0.64876</v>
+        <v>0.81658</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2560,16 +3177,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-300.8625221573333</v>
+        <v>-289.67614035341023</v>
       </c>
       <c r="C16">
-        <v>0.09963631026732994</v>
+        <v>0.09981466410046834</v>
       </c>
       <c r="D16">
-        <v>236.55673825052563</v>
+        <v>207.58519082687928</v>
       </c>
       <c r="E16">
-        <v>0.58949</v>
+        <v>0.38518</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2577,16 +3194,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-300.60366077780577</v>
+        <v>-289.56374987927836</v>
       </c>
       <c r="C17">
-        <v>0.09948263536822681</v>
+        <v>0.07739012194697048</v>
       </c>
       <c r="D17">
-        <v>183.63177007917542</v>
+        <v>297.87466524839795</v>
       </c>
       <c r="E17">
-        <v>0.24478</v>
+        <v>0.29548</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2594,16 +3211,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-300.56114277218785</v>
+        <v>-289.49399720829456</v>
       </c>
       <c r="C18">
-        <v>0.09738446680010159</v>
+        <v>0.09390054662088605</v>
       </c>
       <c r="D18">
-        <v>279.5079154558413</v>
+        <v>277.41267178765037</v>
       </c>
       <c r="E18">
-        <v>0.12183</v>
+        <v>0.23662</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2611,16 +3228,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-300.5490961788784</v>
+        <v>-289.19857228735094</v>
       </c>
       <c r="C19">
-        <v>0.09117727044478818</v>
+        <v>0.08309523435420657</v>
       </c>
       <c r="D19">
-        <v>234.89787985619043</v>
+        <v>435.3258289536304</v>
       </c>
       <c r="E19">
-        <v>0.0764</v>
+        <v>0.11827</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2628,16 +3245,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-300.4030241509961</v>
+        <v>-289.1891211215344</v>
       </c>
       <c r="C20">
-        <v>0.0996269709495083</v>
+        <v>0.099908355987404</v>
       </c>
       <c r="D20">
-        <v>373.3793257963059</v>
+        <v>397.5567433893861</v>
       </c>
       <c r="E20">
-        <v>0.02457</v>
+        <v>0.00956</v>
       </c>
     </row>
   </sheetData>
@@ -2645,9 +3262,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2675,16 +3292,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1535.77501946269</v>
+        <v>-1482.5278036354255</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.34692542954187</v>
+        <v>11.271708884046753</v>
       </c>
       <c r="E2">
-        <v>152.95913</v>
+        <v>151.26384</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2692,16 +3309,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-388.5766742966115</v>
+        <v>-373.68308937779784</v>
       </c>
       <c r="C3">
-        <v>0.09866194054278322</v>
+        <v>0.09874567950739634</v>
       </c>
       <c r="D3">
-        <v>14.374523963053345</v>
+        <v>17.766537548132202</v>
       </c>
       <c r="E3">
-        <v>14.58163</v>
+        <v>14.57878</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2709,16 +3326,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-365.89951210809255</v>
+        <v>-346.4696776518123</v>
       </c>
       <c r="C4">
-        <v>0.09967978137127342</v>
+        <v>0.09807149898934095</v>
       </c>
       <c r="D4">
-        <v>30.306777094856322</v>
+        <v>42.13764973073376</v>
       </c>
       <c r="E4">
-        <v>10.26229</v>
+        <v>12.33769</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2726,135 +3343,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-339.7511046525583</v>
+        <v>-312.6390906487683</v>
       </c>
       <c r="C5">
-        <v>0.0988358759741645</v>
+        <v>0.13924158514190774</v>
       </c>
       <c r="D5">
-        <v>62.61750794674219</v>
+        <v>3606.4475316344874</v>
       </c>
       <c r="E5">
-        <v>5.30693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-328.6516732261383</v>
-      </c>
-      <c r="C6">
-        <v>0.1140276534842237</v>
-      </c>
-      <c r="D6">
-        <v>1006.2378461163632</v>
-      </c>
-      <c r="E6">
-        <v>3.71005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-324.01541509957184</v>
-      </c>
-      <c r="C7">
-        <v>0.09999160852408698</v>
-      </c>
-      <c r="D7">
-        <v>327.1606870400536</v>
-      </c>
-      <c r="E7">
-        <v>2.27375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-320.86497747214383</v>
-      </c>
-      <c r="C8">
-        <v>0.09992577433931356</v>
-      </c>
-      <c r="D8">
-        <v>97.3464643542583</v>
-      </c>
-      <c r="E8">
-        <v>1.81892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-319.20610665431207</v>
-      </c>
-      <c r="C9">
-        <v>0.09999742176764742</v>
-      </c>
-      <c r="D9">
-        <v>799.9868819391186</v>
-      </c>
-      <c r="E9">
-        <v>1.78589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-313.5547175502468</v>
-      </c>
-      <c r="C10">
-        <v>0.09102517542595767</v>
-      </c>
-      <c r="D10">
-        <v>114.00432088450745</v>
-      </c>
-      <c r="E10">
-        <v>0.76384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-313.0624633279035</v>
-      </c>
-      <c r="C11">
-        <v>0.11336077326833323</v>
-      </c>
-      <c r="D11">
-        <v>1006.9542970813997</v>
-      </c>
-      <c r="E11">
-        <v>0.74933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-312.6203105075209</v>
-      </c>
-      <c r="C12">
-        <v>0.0999001559121234</v>
-      </c>
-      <c r="D12">
-        <v>163.10014787343152</v>
-      </c>
-      <c r="E12">
-        <v>0.6881</v>
+        <v>5.56159</v>
       </c>
     </row>
   </sheetData>
@@ -2862,9 +3360,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2892,16 +3390,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1494.1232199893118</v>
+        <v>-1520.733521610784</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.50666090663916</v>
+        <v>6.951887253532105</v>
       </c>
       <c r="E2">
-        <v>137.28801</v>
+        <v>152.81792</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2909,16 +3407,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-382.89626630511657</v>
+        <v>-386.00575154726124</v>
       </c>
       <c r="C3">
-        <v>0.09009355204691637</v>
+        <v>0.09976686000447026</v>
       </c>
       <c r="D3">
-        <v>17.447320800187498</v>
+        <v>24.573618977786985</v>
       </c>
       <c r="E3">
-        <v>14.23344</v>
+        <v>12.81569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2926,16 +3424,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-370.09352546867854</v>
+        <v>-341.0821043390549</v>
       </c>
       <c r="C4">
-        <v>0.09986797091190366</v>
+        <v>0.09916275762820397</v>
       </c>
       <c r="D4">
-        <v>27.23834743253015</v>
+        <v>38.59240193846619</v>
       </c>
       <c r="E4">
-        <v>11.36787</v>
+        <v>9.65853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2943,16 +3441,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-354.8110864294004</v>
+        <v>-322.821706999127</v>
       </c>
       <c r="C5">
-        <v>0.09997453317336027</v>
+        <v>0.09905841291825888</v>
       </c>
       <c r="D5">
-        <v>37.00352836382642</v>
+        <v>46.68742956269275</v>
       </c>
       <c r="E5">
-        <v>8.16786</v>
+        <v>6.3176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2960,16 +3458,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-341.23382425444925</v>
+        <v>-313.1916523086309</v>
       </c>
       <c r="C6">
-        <v>0.08986368411139065</v>
+        <v>0.09999100365731636</v>
       </c>
       <c r="D6">
-        <v>50.99678906743139</v>
+        <v>1036.7689833631375</v>
       </c>
       <c r="E6">
-        <v>6.17771</v>
+        <v>3.91818</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2977,16 +3475,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-327.1683161458667</v>
+        <v>-306.1200793444549</v>
       </c>
       <c r="C7">
-        <v>0.0921588945630063</v>
+        <v>0.09999304896191251</v>
       </c>
       <c r="D7">
-        <v>63.68890210592285</v>
+        <v>1284.7558270220682</v>
       </c>
       <c r="E7">
-        <v>5.96861</v>
+        <v>2.22988</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2994,16 +3492,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-318.0340517228378</v>
+        <v>-303.3670323629159</v>
       </c>
       <c r="C8">
-        <v>0.09998869447669775</v>
+        <v>0.09978581926885352</v>
       </c>
       <c r="D8">
-        <v>739.5357231720585</v>
+        <v>144.20878979895434</v>
       </c>
       <c r="E8">
-        <v>4.31731</v>
+        <v>1.46642</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3011,16 +3509,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-307.8594476126078</v>
+        <v>-302.0747595811227</v>
       </c>
       <c r="C9">
-        <v>0.11733248072994691</v>
+        <v>0.09159422133236193</v>
       </c>
       <c r="D9">
-        <v>1006.3752930989983</v>
+        <v>100.34603938285791</v>
       </c>
       <c r="E9">
-        <v>3.89311</v>
+        <v>1.12046</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3028,16 +3526,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-302.0176027369354</v>
+        <v>-301.26451753114475</v>
       </c>
       <c r="C10">
-        <v>0.0922189234181567</v>
+        <v>0.09968996555230637</v>
       </c>
       <c r="D10">
-        <v>82.40280675872266</v>
+        <v>135.3695617294967</v>
       </c>
       <c r="E10">
-        <v>1.92462</v>
+        <v>1.0954</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3045,16 +3543,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-299.7276062375</v>
+        <v>-300.3806104430896</v>
       </c>
       <c r="C11">
-        <v>0.0977215460706288</v>
+        <v>0.09801025076894836</v>
       </c>
       <c r="D11">
-        <v>115.9523265674347</v>
+        <v>142.8154357816328</v>
       </c>
       <c r="E11">
-        <v>1.52385</v>
+        <v>0.92532</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3062,16 +3560,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-298.22492425414924</v>
+        <v>-298.07998633975444</v>
       </c>
       <c r="C12">
-        <v>0.08859959123251</v>
+        <v>0.09961754929150682</v>
       </c>
       <c r="D12">
-        <v>113.8815463419331</v>
+        <v>172.59237013944264</v>
       </c>
       <c r="E12">
-        <v>1.23068</v>
+        <v>0.87289</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3079,16 +3577,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-297.25048235294594</v>
+        <v>-297.523594430319</v>
       </c>
       <c r="C13">
-        <v>0.09797406135674364</v>
+        <v>0.09926422968932094</v>
       </c>
       <c r="D13">
-        <v>139.99488202657653</v>
+        <v>181.32861976846422</v>
       </c>
       <c r="E13">
-        <v>1.35546</v>
+        <v>0.38571</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3096,16 +3594,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-296.1161114122838</v>
+        <v>-297.4203235282581</v>
       </c>
       <c r="C14">
-        <v>0.0836560278975234</v>
+        <v>0.09736915092567372</v>
       </c>
       <c r="D14">
-        <v>162.1417485902921</v>
+        <v>216.58154197605506</v>
       </c>
       <c r="E14">
-        <v>1.16187</v>
+        <v>0.18017</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3113,1126 +3611,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-295.1978103849758</v>
-      </c>
-      <c r="C15">
-        <v>0.09966050532765011</v>
-      </c>
-      <c r="D15">
-        <v>170.0509891837179</v>
-      </c>
-      <c r="E15">
-        <v>1.04539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-294.55240530155424</v>
-      </c>
-      <c r="C16">
-        <v>0.07513654563750785</v>
-      </c>
-      <c r="D16">
-        <v>206.5287110694236</v>
-      </c>
-      <c r="E16">
-        <v>0.63219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-294.29461073125447</v>
-      </c>
-      <c r="C17">
-        <v>0.08975340508742793</v>
-      </c>
-      <c r="D17">
-        <v>242.92742686181006</v>
-      </c>
-      <c r="E17">
-        <v>0.64619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-293.97015389550995</v>
-      </c>
-      <c r="C18">
-        <v>0.09964692876347732</v>
-      </c>
-      <c r="D18">
-        <v>247.12706411148523</v>
-      </c>
-      <c r="E18">
-        <v>0.49859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-293.78152672397925</v>
-      </c>
-      <c r="C19">
-        <v>0.09069261699191461</v>
-      </c>
-      <c r="D19">
-        <v>230.4428187176079</v>
-      </c>
-      <c r="E19">
-        <v>0.49516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1480.05699853539</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>7.299592588692749</v>
-      </c>
-      <c r="E2">
-        <v>150.45432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-379.7876157074552</v>
-      </c>
-      <c r="C3">
-        <v>0.09681514367686232</v>
-      </c>
-      <c r="D3">
-        <v>17.748500279492553</v>
-      </c>
-      <c r="E3">
-        <v>13.50792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-358.11338896228324</v>
-      </c>
-      <c r="C4">
-        <v>0.09971335768357888</v>
-      </c>
-      <c r="D4">
-        <v>38.93977543869739</v>
-      </c>
-      <c r="E4">
-        <v>12.11572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-324.4689720229286</v>
-      </c>
-      <c r="C5">
-        <v>0.09963654711806531</v>
-      </c>
-      <c r="D5">
-        <v>57.74693293065698</v>
-      </c>
-      <c r="E5">
-        <v>7.10519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-312.82141960899776</v>
-      </c>
-      <c r="C6">
-        <v>0.09998966292735474</v>
-      </c>
-      <c r="D6">
-        <v>655.5493051265771</v>
-      </c>
-      <c r="E6">
-        <v>5.2726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-308.0017240025968</v>
-      </c>
-      <c r="C7">
-        <v>0.09858368007456782</v>
-      </c>
-      <c r="D7">
-        <v>83.5431143514735</v>
-      </c>
-      <c r="E7">
-        <v>3.59657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-302.05250731876436</v>
-      </c>
-      <c r="C8">
-        <v>0.09986639368902844</v>
-      </c>
-      <c r="D8">
-        <v>124.90783316532654</v>
-      </c>
-      <c r="E8">
-        <v>3.03066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-298.09041500115376</v>
-      </c>
-      <c r="C9">
-        <v>0.09643818109885625</v>
-      </c>
-      <c r="D9">
-        <v>114.45021183433619</v>
-      </c>
-      <c r="E9">
-        <v>2.15206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-295.73440587191715</v>
-      </c>
-      <c r="C10">
-        <v>0.09749199443296373</v>
-      </c>
-      <c r="D10">
-        <v>104.12044902610229</v>
-      </c>
-      <c r="E10">
-        <v>1.61498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-294.21148153261515</v>
-      </c>
-      <c r="C11">
-        <v>0.09929831213659969</v>
-      </c>
-      <c r="D11">
-        <v>120.04366682742626</v>
-      </c>
-      <c r="E11">
-        <v>1.30972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-293.3557997266257</v>
-      </c>
-      <c r="C12">
-        <v>0.08451140220273866</v>
-      </c>
-      <c r="D12">
-        <v>131.32048102141027</v>
-      </c>
-      <c r="E12">
-        <v>1.25888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-292.2809283370999</v>
-      </c>
-      <c r="C13">
-        <v>0.09187325036923694</v>
-      </c>
-      <c r="D13">
-        <v>160.06263016122753</v>
-      </c>
-      <c r="E13">
-        <v>1.07983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-291.3312115074191</v>
-      </c>
-      <c r="C14">
-        <v>0.09646365820616655</v>
-      </c>
-      <c r="D14">
-        <v>188.86047723914845</v>
-      </c>
-      <c r="E14">
-        <v>0.83423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-290.86200531215184</v>
-      </c>
-      <c r="C15">
-        <v>0.0993821596185676</v>
-      </c>
-      <c r="D15">
-        <v>177.7108663498988</v>
-      </c>
-      <c r="E15">
-        <v>0.81658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-289.67614035341023</v>
-      </c>
-      <c r="C16">
-        <v>0.09981466410046834</v>
-      </c>
-      <c r="D16">
-        <v>201.3427941660448</v>
-      </c>
-      <c r="E16">
-        <v>0.38518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-289.56374987927836</v>
-      </c>
-      <c r="C17">
-        <v>0.07739012194697048</v>
-      </c>
-      <c r="D17">
-        <v>275.5853696786488</v>
-      </c>
-      <c r="E17">
-        <v>0.29548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-289.49399720829456</v>
-      </c>
-      <c r="C18">
-        <v>0.09390054662088605</v>
-      </c>
-      <c r="D18">
-        <v>259.204249034724</v>
-      </c>
-      <c r="E18">
-        <v>0.23662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-289.19857228735094</v>
-      </c>
-      <c r="C19">
-        <v>0.08309523435420657</v>
-      </c>
-      <c r="D19">
-        <v>393.92473168414426</v>
-      </c>
-      <c r="E19">
-        <v>0.11827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-289.1891211215344</v>
-      </c>
-      <c r="C20">
-        <v>0.099908355987404</v>
-      </c>
-      <c r="D20">
-        <v>371.65159088742774</v>
-      </c>
-      <c r="E20">
-        <v>0.00956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-289.1660925443899</v>
-      </c>
-      <c r="C21">
-        <v>0.0996032184093293</v>
-      </c>
-      <c r="D21">
-        <v>344.4862908089923</v>
-      </c>
-      <c r="E21">
-        <v>0.00802</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1482.5278036354255</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>10.586394225361571</v>
-      </c>
-      <c r="E2">
-        <v>151.26384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-373.68308937779784</v>
-      </c>
-      <c r="C3">
-        <v>0.09874567950739634</v>
-      </c>
-      <c r="D3">
-        <v>16.379093397261354</v>
-      </c>
-      <c r="E3">
-        <v>14.57878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-346.4696776518123</v>
-      </c>
-      <c r="C4">
-        <v>0.09807149898934095</v>
-      </c>
-      <c r="D4">
-        <v>36.87285937883142</v>
-      </c>
-      <c r="E4">
-        <v>12.33769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-312.6390905437262</v>
-      </c>
-      <c r="C5">
-        <v>0.14803315251251495</v>
-      </c>
-      <c r="D5">
-        <v>1006.1441394939055</v>
-      </c>
-      <c r="E5">
-        <v>5.56175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-301.2995850625572</v>
-      </c>
-      <c r="C6">
-        <v>0.09980222629677951</v>
-      </c>
-      <c r="D6">
-        <v>65.76340799306067</v>
-      </c>
-      <c r="E6">
-        <v>3.84604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-296.4606608223706</v>
-      </c>
-      <c r="C7">
-        <v>0.0999549540714522</v>
-      </c>
-      <c r="D7">
-        <v>271.9805262164341</v>
-      </c>
-      <c r="E7">
-        <v>1.90457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-294.01600651766114</v>
-      </c>
-      <c r="C8">
-        <v>0.08807638089171142</v>
-      </c>
-      <c r="D8">
-        <v>65.54384952479822</v>
-      </c>
-      <c r="E8">
-        <v>1.70452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-292.31558901855703</v>
-      </c>
-      <c r="C9">
-        <v>0.09844838638921996</v>
-      </c>
-      <c r="D9">
-        <v>74.18018485744483</v>
-      </c>
-      <c r="E9">
-        <v>1.16059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-291.3965196537878</v>
-      </c>
-      <c r="C10">
-        <v>0.08881723074314174</v>
-      </c>
-      <c r="D10">
-        <v>89.8938656758706</v>
-      </c>
-      <c r="E10">
-        <v>0.86253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-290.9645519878464</v>
-      </c>
-      <c r="C11">
-        <v>0.09330594349963688</v>
-      </c>
-      <c r="D11">
-        <v>114.04723599995776</v>
-      </c>
-      <c r="E11">
-        <v>0.69796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-290.478252482584</v>
-      </c>
-      <c r="C12">
-        <v>0.08850288278215357</v>
-      </c>
-      <c r="D12">
-        <v>121.63675128666382</v>
-      </c>
-      <c r="E12">
-        <v>0.64393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-290.2124690886934</v>
-      </c>
-      <c r="C13">
-        <v>0.0988914987677743</v>
-      </c>
-      <c r="D13">
-        <v>138.04083544167298</v>
-      </c>
-      <c r="E13">
-        <v>0.43016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-289.6594888496535</v>
-      </c>
-      <c r="C14">
-        <v>0.07897574052750073</v>
-      </c>
-      <c r="D14">
-        <v>176.06797838169618</v>
-      </c>
-      <c r="E14">
-        <v>0.29416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-289.6069426989427</v>
-      </c>
-      <c r="C15">
-        <v>0.09212255182694105</v>
-      </c>
-      <c r="D15">
-        <v>186.04906054009717</v>
-      </c>
-      <c r="E15">
-        <v>0.11825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-289.5961453181077</v>
-      </c>
-      <c r="C16">
-        <v>0.09555678396841995</v>
-      </c>
-      <c r="D16">
-        <v>221.8682258465946</v>
-      </c>
-      <c r="E16">
-        <v>0.07199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-289.59170491571626</v>
-      </c>
-      <c r="C17">
-        <v>0.08021052764386312</v>
-      </c>
-      <c r="D17">
-        <v>252.59123423468702</v>
-      </c>
-      <c r="E17">
-        <v>0.06918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-289.58659361562263</v>
-      </c>
-      <c r="C18">
-        <v>0.09984708210553654</v>
-      </c>
-      <c r="D18">
-        <v>255.36596104063867</v>
-      </c>
-      <c r="E18">
-        <v>0.04741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-289.55323424923796</v>
-      </c>
-      <c r="C19">
-        <v>0.09750547949323257</v>
-      </c>
-      <c r="D19">
-        <v>271.5449415112449</v>
-      </c>
-      <c r="E19">
-        <v>0.03388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-289.4727174474009</v>
-      </c>
-      <c r="C20">
-        <v>0.08322821877568932</v>
-      </c>
-      <c r="D20">
-        <v>338.89219067911085</v>
-      </c>
-      <c r="E20">
-        <v>0.00832</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1520.733521610784</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>7.775296040759399</v>
-      </c>
-      <c r="E2">
-        <v>152.81792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-386.00575154726124</v>
-      </c>
-      <c r="C3">
-        <v>0.09976686000447026</v>
-      </c>
-      <c r="D3">
-        <v>17.19925326927185</v>
-      </c>
-      <c r="E3">
-        <v>12.81569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-341.0821043390549</v>
-      </c>
-      <c r="C4">
-        <v>0.09916275762820397</v>
-      </c>
-      <c r="D4">
-        <v>31.234796208520873</v>
-      </c>
-      <c r="E4">
-        <v>9.65853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-322.821706999127</v>
-      </c>
-      <c r="C5">
-        <v>0.09905841291825888</v>
-      </c>
-      <c r="D5">
-        <v>36.15705414212439</v>
-      </c>
-      <c r="E5">
-        <v>6.3176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-313.1916523086309</v>
-      </c>
-      <c r="C6">
-        <v>0.09999100365731636</v>
-      </c>
-      <c r="D6">
-        <v>877.5821179864499</v>
-      </c>
-      <c r="E6">
-        <v>3.91818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-306.1200793444549</v>
-      </c>
-      <c r="C7">
-        <v>0.10066910952533115</v>
-      </c>
-      <c r="D7">
-        <v>1008.5419518691757</v>
-      </c>
-      <c r="E7">
-        <v>2.22988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-303.3670323629159</v>
-      </c>
-      <c r="C8">
-        <v>0.09978581926885352</v>
-      </c>
-      <c r="D8">
-        <v>121.01775716278883</v>
-      </c>
-      <c r="E8">
-        <v>1.46642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-302.0747595811227</v>
-      </c>
-      <c r="C9">
-        <v>0.09159422133236193</v>
-      </c>
-      <c r="D9">
-        <v>79.49857220769104</v>
-      </c>
-      <c r="E9">
-        <v>1.12046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-301.26451753114475</v>
-      </c>
-      <c r="C10">
-        <v>0.09968996555230637</v>
-      </c>
-      <c r="D10">
-        <v>115.02490787563525</v>
-      </c>
-      <c r="E10">
-        <v>1.0954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-300.3806104430896</v>
-      </c>
-      <c r="C11">
-        <v>0.09801025076894836</v>
-      </c>
-      <c r="D11">
-        <v>113.16455950389513</v>
-      </c>
-      <c r="E11">
-        <v>0.92532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-298.07998633975444</v>
-      </c>
-      <c r="C12">
-        <v>0.09961754929150682</v>
-      </c>
-      <c r="D12">
-        <v>148.25896333099072</v>
-      </c>
-      <c r="E12">
-        <v>0.87289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-297.523594430319</v>
-      </c>
-      <c r="C13">
-        <v>0.09926422968932094</v>
-      </c>
-      <c r="D13">
-        <v>157.943118722735</v>
-      </c>
-      <c r="E13">
-        <v>0.38571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-297.4203235282581</v>
-      </c>
-      <c r="C14">
-        <v>0.09736915092567372</v>
-      </c>
-      <c r="D14">
-        <v>167.77108465870873</v>
-      </c>
-      <c r="E14">
-        <v>0.18017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
         <v>-297.3996219898407</v>
       </c>
       <c r="C15">
         <v>0.08306961163590094</v>
       </c>
       <c r="D15">
-        <v>203.4652125995349</v>
+        <v>270.7319848018854</v>
       </c>
       <c r="E15">
         <v>0.18972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-297.36795515545066</v>
-      </c>
-      <c r="C16">
-        <v>0.09809997284918394</v>
-      </c>
-      <c r="D16">
-        <v>240.85829502151722</v>
-      </c>
-      <c r="E16">
-        <v>0.16156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-297.3418683221187</v>
-      </c>
-      <c r="C17">
-        <v>0.09911055165278564</v>
-      </c>
-      <c r="D17">
-        <v>253.0739302273479</v>
-      </c>
-      <c r="E17">
-        <v>0.09014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-297.3344274516786</v>
-      </c>
-      <c r="C18">
-        <v>0.09859467185363228</v>
-      </c>
-      <c r="D18">
-        <v>287.49480806147386</v>
-      </c>
-      <c r="E18">
-        <v>0.04525</v>
       </c>
     </row>
   </sheetData>
